--- a/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/ZhaoShang_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/ZhaoShang_N.xlsx
@@ -966,7 +966,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
